--- a/analyses/ranges/notes/rangesize_cat.xlsx
+++ b/analyses/ranges/notes/rangesize_cat.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/CatherineChamberlain/Documents/git/ospree/analyses/ranges/notes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6732277F-AD64-D744-B2C0-119C413BF81C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C6BF7A4-44D8-4345-8702-F2A090D23BBA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8320" yWindow="460" windowWidth="25040" windowHeight="13680" activeTab="1" xr2:uid="{70B2C92C-EA02-4046-83E0-BD36971D6BE5}"/>
+    <workbookView xWindow="8720" yWindow="460" windowWidth="22200" windowHeight="14160" activeTab="1" xr2:uid="{70B2C92C-EA02-4046-83E0-BD36971D6BE5}"/>
   </bookViews>
   <sheets>
     <sheet name="meta" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="74">
   <si>
     <t>species</t>
   </si>
@@ -241,6 +241,21 @@
   </si>
   <si>
     <t>acer_saccharum, betula_alleghaniensis</t>
+  </si>
+  <si>
+    <t>fraxinus_nigra</t>
+  </si>
+  <si>
+    <t>populus_grandidentata</t>
+  </si>
+  <si>
+    <t>picea_glauca, picea_mariana</t>
+  </si>
+  <si>
+    <t>betula_papyrifera, picea_mariana</t>
+  </si>
+  <si>
+    <t>betula_papyrifera, picea_glauca</t>
   </si>
 </sst>
 </file>
@@ -700,7 +715,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C21" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G41" sqref="G41"/>
+      <selection pane="bottomRight" activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1215,7 +1230,7 @@
         <v>66</v>
       </c>
       <c r="C24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D24">
         <v>2</v>
@@ -1247,7 +1262,7 @@
         <v>3</v>
       </c>
       <c r="F25">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
@@ -1278,16 +1293,16 @@
         <v>66</v>
       </c>
       <c r="C27">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D27">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E27">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F27">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
@@ -1298,10 +1313,10 @@
         <v>66</v>
       </c>
       <c r="C28">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D28">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E28">
         <v>3</v>
@@ -1350,7 +1365,10 @@
         <v>5</v>
       </c>
       <c r="F30">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="G30" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
@@ -1361,7 +1379,7 @@
         <v>66</v>
       </c>
       <c r="C31">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D31">
         <v>5</v>
@@ -1393,7 +1411,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>57</v>
       </c>
@@ -1404,7 +1422,7 @@
         <v>3</v>
       </c>
       <c r="D33">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E33">
         <v>3</v>
@@ -1412,8 +1430,11 @@
       <c r="F33">
         <v>2</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G33" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>58</v>
       </c>
@@ -1430,10 +1451,13 @@
         <v>5</v>
       </c>
       <c r="F34">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+      <c r="G34" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>59</v>
       </c>
@@ -1450,10 +1474,13 @@
         <v>5</v>
       </c>
       <c r="F35">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+      <c r="G35" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>60</v>
       </c>
@@ -1464,7 +1491,7 @@
         <v>3</v>
       </c>
       <c r="D36">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E36">
         <v>3</v>
@@ -1472,8 +1499,11 @@
       <c r="F36">
         <v>2</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G36" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>61</v>
       </c>
@@ -1493,7 +1523,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>62</v>
       </c>
@@ -1513,7 +1543,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>63</v>
       </c>
@@ -1521,7 +1551,7 @@
         <v>66</v>
       </c>
       <c r="C39">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D39">
         <v>3</v>
@@ -1533,7 +1563,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>64</v>
       </c>
@@ -1544,16 +1574,16 @@
         <v>4</v>
       </c>
       <c r="D40">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E40">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F40">
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>65</v>
       </c>
